--- a/data/fromR/top_ten_threatened.xlsx
+++ b/data/fromR/top_ten_threatened.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/System/Volumes/Data/Rstudio_Git/threatRF/data/fromR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79526D72-D258-464E-8BDE-C7000E1BB63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{33BFBB55-F899-EB49-8A93-FE0E33CD6FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="30240" yWindow="900" windowWidth="19940" windowHeight="19240"/>
   </bookViews>
   <sheets>
     <sheet name="top_ten_threatened" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>lepidoptera</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>VA, NC S1 DE S2</t>
-  </si>
-  <si>
-    <t>CHECK ME</t>
   </si>
   <si>
     <t>NC, DE S3</t>
@@ -1068,7 +1065,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,8 +1318,8 @@
       <c r="D13" s="4">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E13" t="s">
-        <v>55</v>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -1342,10 +1339,10 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1362,10 +1359,10 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1382,7 +1379,7 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -1402,7 +1399,7 @@
         <v>0.96</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1419,7 +1416,7 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1436,7 +1433,7 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
@@ -1456,7 +1453,7 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1473,10 +1470,10 @@
         <v>0.95</v>
       </c>
       <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
         <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/fromR/top_ten_threatened.xlsx
+++ b/data/fromR/top_ten_threatened.xlsx
@@ -1,88 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/System/Volumes/Data/Rstudio_Git/threatRF/data/fromR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{33BFBB55-F899-EB49-8A93-FE0E33CD6FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CAE262-DFC3-594B-9073-FA1504103115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="900" windowWidth="19940" windowHeight="19240"/>
+    <workbookView xWindow="6280" yWindow="760" windowWidth="22600" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top_ten_threatened" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
+  <si>
+    <t>taxon</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
   <si>
     <t>lepidoptera</t>
   </si>
   <si>
+    <t>Olethreutes</t>
+  </si>
+  <si>
+    <t>bipartitana</t>
+  </si>
+  <si>
+    <t>Scoparia</t>
+  </si>
+  <si>
+    <t>cinereomedia</t>
+  </si>
+  <si>
+    <t>Euphyia</t>
+  </si>
+  <si>
+    <t>intermediata</t>
+  </si>
+  <si>
+    <t>Haploa</t>
+  </si>
+  <si>
+    <t>confusa</t>
+  </si>
+  <si>
+    <t>Catocala</t>
+  </si>
+  <si>
+    <t>blandula</t>
+  </si>
+  <si>
     <t>Panthea</t>
   </si>
   <si>
     <t>acronyctoides</t>
   </si>
   <si>
-    <t>Catocala</t>
-  </si>
-  <si>
-    <t>blandula</t>
-  </si>
-  <si>
-    <t>Haploa</t>
-  </si>
-  <si>
-    <t>confusa</t>
-  </si>
-  <si>
-    <t>Scoparia</t>
-  </si>
-  <si>
-    <t>cinereomedia</t>
-  </si>
-  <si>
-    <t>Olethreutes</t>
-  </si>
-  <si>
-    <t>bipartitana</t>
-  </si>
-  <si>
     <t>Argyresthia</t>
   </si>
   <si>
     <t>calliphanes</t>
   </si>
   <si>
+    <t>Cingilia</t>
+  </si>
+  <si>
+    <t>catenaria</t>
+  </si>
+  <si>
     <t>Chrysanympha</t>
   </si>
   <si>
     <t>formosa</t>
   </si>
   <si>
-    <t>Packardia</t>
-  </si>
-  <si>
-    <t>elegans</t>
-  </si>
-  <si>
-    <t>Lithacodia</t>
-  </si>
-  <si>
-    <t>albidula</t>
-  </si>
-  <si>
-    <t>Cingilia</t>
-  </si>
-  <si>
-    <t>catenaria</t>
+    <t>Idia</t>
+  </si>
+  <si>
+    <t>diminuendis</t>
+  </si>
+  <si>
+    <t>Arequipa</t>
+  </si>
+  <si>
+    <t>turbatella</t>
+  </si>
+  <si>
+    <t>Acronicta</t>
+  </si>
+  <si>
+    <t>insita</t>
+  </si>
+  <si>
+    <t>Sthenopis</t>
+  </si>
+  <si>
+    <t>pretiosus</t>
+  </si>
+  <si>
+    <t>Eulithis</t>
+  </si>
+  <si>
+    <t>molliculata</t>
   </si>
   <si>
     <t>plantae</t>
@@ -94,131 +140,197 @@
     <t>elliptica</t>
   </si>
   <si>
-    <t>Drosera</t>
+    <t>Poa</t>
+  </si>
+  <si>
+    <t>autumnalis</t>
+  </si>
+  <si>
+    <t>americana</t>
+  </si>
+  <si>
+    <t>Eragrostis</t>
+  </si>
+  <si>
+    <t>hypnoides</t>
+  </si>
+  <si>
+    <t>Bidens</t>
+  </si>
+  <si>
+    <t>connata</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>macloskeyi</t>
+  </si>
+  <si>
+    <t>Dichanthelium</t>
+  </si>
+  <si>
+    <t>longiligulatum</t>
+  </si>
+  <si>
+    <t>Carex</t>
+  </si>
+  <si>
+    <t>gynandra</t>
+  </si>
+  <si>
+    <t>Gentiana</t>
+  </si>
+  <si>
+    <t>clausa</t>
+  </si>
+  <si>
+    <t>Selaginella</t>
+  </si>
+  <si>
+    <t>rupestris</t>
   </si>
   <si>
     <t>rotundifolia</t>
   </si>
   <si>
-    <t>Agrimonia</t>
-  </si>
-  <si>
-    <t>gryposepala</t>
-  </si>
-  <si>
-    <t>Asplenium</t>
-  </si>
-  <si>
-    <t>montanum</t>
-  </si>
-  <si>
-    <t>Eurybia</t>
-  </si>
-  <si>
-    <t>macrophylla</t>
-  </si>
-  <si>
-    <t>Dendrolycopodium</t>
-  </si>
-  <si>
-    <t>hickeyi</t>
-  </si>
-  <si>
-    <t>Trautvetteria</t>
-  </si>
-  <si>
-    <t>caroliniensis</t>
-  </si>
-  <si>
-    <t>americana</t>
-  </si>
-  <si>
-    <t>Vaccinium</t>
-  </si>
-  <si>
-    <t>macrocarpum</t>
-  </si>
-  <si>
-    <t>Gentiana</t>
-  </si>
-  <si>
-    <t>clausa</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genus</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Votes that species is threatened</t>
-  </si>
-  <si>
-    <t>Regional Assessments</t>
-  </si>
-  <si>
-    <t>North with Appalachian</t>
-  </si>
-  <si>
-    <t>VA S2S4</t>
+    <t>Prunus</t>
+  </si>
+  <si>
+    <t>pensylvanica</t>
+  </si>
+  <si>
+    <t>Spiraea</t>
+  </si>
+  <si>
+    <t>corymbosa</t>
+  </si>
+  <si>
+    <t>Actaea</t>
+  </si>
+  <si>
+    <t>pachypoda</t>
+  </si>
+  <si>
+    <t>Betula</t>
+  </si>
+  <si>
+    <t>alleghaniensis</t>
+  </si>
+  <si>
+    <t>boreale</t>
+  </si>
+  <si>
+    <t>Status elsewhere?</t>
+  </si>
+  <si>
+    <t>Northern</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>IN, KY S2</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IN S1, VA S3</t>
-  </si>
-  <si>
-    <t>ON SE</t>
-  </si>
-  <si>
-    <t>CT S1 MA S2</t>
-  </si>
-  <si>
-    <t>VA, NC S1 DE S2</t>
-  </si>
-  <si>
-    <t>NC, DE S3</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>NJ, MA S1, NY S2</t>
-  </si>
-  <si>
-    <t>RI S1</t>
-  </si>
-  <si>
-    <t>Appalachian</t>
-  </si>
-  <si>
-    <t>DE, NC, IN, TN S2</t>
-  </si>
-  <si>
-    <t>NC, OH S3; RI, QE S2</t>
-  </si>
-  <si>
-    <t>Y/ Appalachian</t>
-  </si>
-  <si>
-    <t>HAS MD STATUS</t>
+    <t>S1 KY, IN; S4 PA</t>
+  </si>
+  <si>
+    <t>S3 VA; S4 NB, ON</t>
+  </si>
+  <si>
+    <t>S1 CT; S2 MA; S4 NH, NB; S5 ON</t>
+  </si>
+  <si>
+    <t>S1 IN; S3 NC; S4 NY, PA, NB; S5 ON</t>
+  </si>
+  <si>
+    <t>S2 QE; S3 NH; S4 PA</t>
+  </si>
+  <si>
+    <t>S1 VA, NC; S2 DE, S4 WV, NJ</t>
+  </si>
+  <si>
+    <t>SX KY, IL, S2 NJ, NC, TN, IN; S4 NJ, VT; S5 VA, WV</t>
+  </si>
+  <si>
+    <t>S1 RI; SH WV; S4 VA; QE; S5 NJ, NY, KY</t>
+  </si>
+  <si>
+    <t>SH ME, NH; S2 NC, DE; S3 NJ, VT, S4 NY, VA, WV, KY</t>
+  </si>
+  <si>
+    <t>S1 DE; S2 RI, SC; S4 NJ, WV, NC, QE; S5 VA, KY, GA, NY, ON</t>
+  </si>
+  <si>
+    <t>S1 DE; S3 GA, NC; S4 VA, WV; S5 NY, QE, ON</t>
+  </si>
+  <si>
+    <t>S1 OH; S2 De; S4 Nj, NC; S5 VA, WV, NY, ON, KY</t>
+  </si>
+  <si>
+    <t>SX MI, IL, SH NJ, S1 PA, S3 DE, S4 NC, S5 SC, VA, KY</t>
+  </si>
+  <si>
+    <t>S1 OH, NB, NS; S2 IA, NJ; S3 WV, VT, NC, IL, MA; S4 NY; S5 ON, QE, GA</t>
+  </si>
+  <si>
+    <t>S1 Nj, S3 NC; S4 VA, KY</t>
+  </si>
+  <si>
+    <t>S2 QE, RI; S3 NC, OH; S4VA, WV, NY, NJ</t>
+  </si>
+  <si>
+    <t>S1 RI; S2 DE, S3S4 KY, NJ; S4 NC, WV, S5 NY, VA</t>
+  </si>
+  <si>
+    <t>S2 GA; S3 IN; S4 NC, WV; S5 VA, PA, NY, ON, QE</t>
+  </si>
+  <si>
+    <t>S1 IL, SC; S4 WV, QE; S5 KY, VA, NC, PA, NY, ON, ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>S1 NJ, WV, IL; s3 NY, S4 ON, QE</t>
+  </si>
+  <si>
+    <t>Likely misidentification</t>
+  </si>
+  <si>
+    <t>S4 PA, ON</t>
+  </si>
+  <si>
+    <t>S1 MA; S2 PA, VA; S3 ON</t>
+  </si>
+  <si>
+    <t>S3 VA; S4 ON</t>
+  </si>
+  <si>
+    <t>vote fraction (threatened)</t>
+  </si>
+  <si>
+    <t>threat rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appalachian </t>
+  </si>
+  <si>
+    <t>Taxonomy problem, already listed in MD as *Spiraea betulifolia var. corymbosa*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1 NC, PA; S3 MD, WV; S5 VA </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,8 +465,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,8 +654,32 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -650,6 +794,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -695,17 +888,90 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -766,7 +1032,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1054,429 +1320,775 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="22"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26"/>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="17">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="16">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="17">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="16">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="18">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="16">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="16">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="16">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="19">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="18">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D20" s="18">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D21" s="16">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D22" s="18">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D23" s="16">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D24" s="16">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E24" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="16">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="16">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="16">
         <v>12</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E27" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="21">
+        <v>12</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="18">
         <v>14</v>
       </c>
-      <c r="D8" s="4">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E29" s="4">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C30" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D30" s="16">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F21" t="s">
-        <v>62</v>
+      <c r="D31" s="19">
+        <v>14</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>